--- a/BESTDDFinalVersion2/target/test-classes/testdata/TestData.xlsx
+++ b/BESTDDFinalVersion2/target/test-classes/testdata/TestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BEA65F-3FB1-4ACE-9AD8-B47BEB84AF73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94A6769-AAEA-4C81-8B0E-C24099822BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchforPlan" sheetId="3" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="CreateCustomer" sheetId="10" r:id="rId7"/>
     <sheet name="AddCC" sheetId="8" r:id="rId8"/>
     <sheet name="AddPM" sheetId="11" r:id="rId9"/>
+    <sheet name="AddDependent" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="164">
   <si>
     <t>don1thack</t>
   </si>
@@ -445,6 +446,81 @@
   </si>
   <si>
     <t>Always Print and Mail</t>
+  </si>
+  <si>
+    <t>PrimaryNum</t>
+  </si>
+  <si>
+    <t>53570720</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Eligible</t>
+  </si>
+  <si>
+    <t>Eligible Reason</t>
+  </si>
+  <si>
+    <t>DependentTest1</t>
+  </si>
+  <si>
+    <t>DependentTest2</t>
+  </si>
+  <si>
+    <t>Disability</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>105698752</t>
+  </si>
+  <si>
+    <t>Testyo</t>
+  </si>
+  <si>
+    <t>ProofDate</t>
+  </si>
+  <si>
+    <t>DependentTest3</t>
+  </si>
+  <si>
+    <t>Under Age</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>spouse</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -529,7 +605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -554,6 +630,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -895,6 +976,220 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18388CDF-BD22-4B44-B284-638AB54AAAF6}">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="8.88671875" style="14"/>
+    <col min="4" max="4" width="11.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.21875" style="14" customWidth="1"/>
+    <col min="11" max="12" width="18.88671875" style="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0115254B-3FE7-4242-96FF-AEEA810EA1D4}">
   <dimension ref="A1:G7"/>
@@ -1085,7 +1380,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1134,7 +1429,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1564,7 +1859,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1707,7 +2002,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1839,8 +2134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD6177A-7BF6-452C-B399-7E27930614E1}">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/BESTDDFinalVersion2/target/test-classes/testdata/TestData.xlsx
+++ b/BESTDDFinalVersion2/target/test-classes/testdata/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94A6769-AAEA-4C81-8B0E-C24099822BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD90270B-5384-492C-A061-3B5F982730AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchforPlan" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="AddCC" sheetId="8" r:id="rId8"/>
     <sheet name="AddPM" sheetId="11" r:id="rId9"/>
     <sheet name="AddDependent" sheetId="12" r:id="rId10"/>
+    <sheet name="AddDependentCase" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="164">
   <si>
     <t>don1thack</t>
   </si>
@@ -980,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18388CDF-BD22-4B44-B284-638AB54AAAF6}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1187,6 +1188,49 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF9FEB4D-EC75-4F1A-9E57-6A856A099F59}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:L1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/BESTDDFinalVersion2/target/test-classes/testdata/TestData.xlsx
+++ b/BESTDDFinalVersion2/target/test-classes/testdata/TestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD90270B-5384-492C-A061-3B5F982730AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426A4382-D323-4466-8655-9CE1EA476348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchforPlan" sheetId="3" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="AddDependentCase" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="174">
   <si>
     <t>don1thack</t>
   </si>
@@ -522,6 +523,36 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>Coverage</t>
+  </si>
+  <si>
+    <t>Dental</t>
+  </si>
+  <si>
+    <t>EffectiveDate</t>
+  </si>
+  <si>
+    <t>01/01/2022</t>
+  </si>
+  <si>
+    <t>01/01/2023</t>
+  </si>
+  <si>
+    <t>EnrollmentReason</t>
+  </si>
+  <si>
+    <t>Initial Enrollment</t>
+  </si>
+  <si>
+    <t>MajorEffectiveDate</t>
+  </si>
+  <si>
+    <t>WaitingPeriod</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
@@ -559,7 +590,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -602,11 +633,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -636,6 +678,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -982,7 +1025,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD5"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1193,15 +1236,22 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF9FEB4D-EC75-4F1A-9E57-6A856A099F59}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:L1048576"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1214,8 +1264,23 @@
       <c r="D1" s="12" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1228,9 +1293,25 @@
       <c r="D2" s="13" t="s">
         <v>154</v>
       </c>
+      <c r="E2" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>170</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/BESTDDFinalVersion2/target/test-classes/testdata/TestData.xlsx
+++ b/BESTDDFinalVersion2/target/test-classes/testdata/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426A4382-D323-4466-8655-9CE1EA476348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A941960F-85B5-421D-B04D-91BFDD8E8EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchforPlan" sheetId="3" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="AddPM" sheetId="11" r:id="rId9"/>
     <sheet name="AddDependent" sheetId="12" r:id="rId10"/>
     <sheet name="AddDependentCase" sheetId="13" r:id="rId11"/>
+    <sheet name="AddDependentAndCase" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="180">
   <si>
     <t>don1thack</t>
   </si>
@@ -553,6 +553,24 @@
   </si>
   <si>
     <t>12</t>
+  </si>
+  <si>
+    <t>DependentFName</t>
+  </si>
+  <si>
+    <t>105729197</t>
+  </si>
+  <si>
+    <t>Dep Fname</t>
+  </si>
+  <si>
+    <t>DependentTestC1</t>
+  </si>
+  <si>
+    <t>DependentTestC2</t>
+  </si>
+  <si>
+    <t>Testlname</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1043,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1236,22 +1254,23 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF9FEB4D-EC75-4F1A-9E57-6A856A099F59}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1264,23 +1283,26 @@
       <c r="D1" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1291,27 +1313,212 @@
         <v>140</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="E2" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>170</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43B5AB1-17D0-4ED9-B394-C04ADAA702DB}">
+  <dimension ref="A1:Q3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
